--- a/SkillDemo/Tweets.xlsx
+++ b/SkillDemo/Tweets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\SkillDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764ADFC1-24CD-48C3-B6EF-D01D5D55AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBC12D1-8196-47A8-B024-F112D240E2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="2900" windowWidth="17300" windowHeight="9980" xr2:uid="{479EB25B-A399-4AB8-8C9D-862F27A70FCF}"/>
   </bookViews>
